--- a/data/location.xlsx
+++ b/data/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D2713-A061-4DC6-8DEE-B558AFC72436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC596835-0B40-49D2-9A3B-5973EDA99262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +418,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -528,6 +535,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -833,14 +842,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="139.140625" customWidth="1"/>
   </cols>
@@ -903,7 +912,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -917,7 +926,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -931,7 +940,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -945,7 +954,7 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -959,7 +968,7 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -973,7 +982,7 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -987,7 +996,7 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1001,7 +1010,7 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1015,7 +1024,7 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1029,7 +1038,7 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1043,7 +1052,7 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1057,21 +1066,21 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1085,7 +1094,7 @@
       <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1099,7 +1108,7 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1113,7 +1122,7 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1127,7 +1136,7 @@
       <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1141,7 +1150,7 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1155,7 +1164,7 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1169,7 +1178,7 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1183,7 +1192,7 @@
       <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1197,7 +1206,7 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1211,7 +1220,7 @@
       <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1225,7 +1234,7 @@
       <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1239,7 +1248,7 @@
       <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1253,7 +1262,7 @@
       <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1267,7 +1276,7 @@
       <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1291,6 +1300,32 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://www.google.com/maps/place/Rajamanickamnadar+Nagar,+Avaniyapuram,+Madurai,+Tamil+Nadu+625012/data=!4m6!3m5!1s0x3b00daab0a911b7b:0x455273d42f0c9291!7e2!8m2!3d9.8660573!4d78.1151273?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACCenQoqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=a4ef044d-cc0d-49a1-b524-943dd213aeb6" xr:uid="{5B5C0937-013C-4D4B-AE6B-525BE22D8C55}"/>
     <hyperlink ref="D2" r:id="rId2" display="https://www.google.com/maps/place/9.849421,78.086520/data=!4m6!3m5!1s0!7e2!8m2!3d9.849421!4d78.08652?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDl7Q0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=3c220985-541a-4fc9-b339-1836f45f1bc5" xr:uid="{DF2C655C-88CD-4ECF-B736-083A1ADF46A0}"/>
+    <hyperlink ref="D28" r:id="rId3" display="https://www.google.com/maps/place/APA+BLUE+METALS+AND+PAVERS,+P7RG+365+Cumbum.theni,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c512b60a7247:0x9f2cb88f7cb9072!7e2!8m2!3d9.923233!4d78.12461379999999?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=8bdccee2-e6d6-4e22-b227-eacf0a2ed710" xr:uid="{4FF260B3-A78A-4783-8DC0-60715F5DB053}"/>
+    <hyperlink ref="D25" r:id="rId4" display="https://www.google.com/maps/place/204,+Chinthamani+Rd,+Nagupillai+thoppu,+Madurai,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c576f562901f:0x38770804a49a6d4c!7e2!8m2!3d9.910466!4d78.126385?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=eb45e2c4-bdec-4d06-93b6-507de4477193" xr:uid="{06094781-A925-4912-8A73-679D3961C579}"/>
+    <hyperlink ref="D24" r:id="rId5" display="https://www.google.com/maps/place/Vadipatti,+Tamil+Nadu+625503/data=!4m6!3m5!1s0x3b00b9dfefcfaf89:0x9b8a5023c93f1779!7e2!8m2!3d10.1096164!4d78.1115943?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=680f7e0a-4bca-47b6-8484-d513a1935fd9" xr:uid="{79839D7E-2B23-4C32-A2F3-2E35B5FE9049}"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://www.google.com/maps/place/2520,+Koodal+Nagar,+Tamil+Nadu+Housing+Board+Colony,+Anuppanadi,+Madurai,+Tamil+Nadu+625009/data=!4m6!3m5!1s0x3b00c50d383849b7:0xd70603f6418d042e!7e2!8m2!3d9.9040283!4d78.1344344?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=da98d2a1-a2b7-4e8b-bb2a-2d4eaaa6d74c" xr:uid="{65BFF313-4007-4253-BC8F-2D2F50ABACFB}"/>
+    <hyperlink ref="D30" r:id="rId7" display="https://www.google.com/maps/place/5-4-6,+4th+St,+Shanthi+Nagar,+Koodal+Nagar,+Madurai,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00cf4df2f96af5:0xf478910ea2ebca4a!7e2!8m2!3d9.9518706!4d78.0988888?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=1b16adc2-de6c-4725-9c23-e1f0c2372202" xr:uid="{E4C2D586-2FB6-4DFD-9A5E-CD3D7740805F}"/>
+    <hyperlink ref="D29" r:id="rId8" display="https://www.google.com/maps/place/Madurai+West,+Tamil+Nadu+625021/data=!4m6!3m5!1s0x3b00cc1bdf55eb5d:0x60edccbffc003ba5!7e2!8m2!3d9.9365389!4d78.0120685?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=439b18b5-34c1-43d7-9570-4186b7527108" xr:uid="{46B243A7-78CC-4B5A-81A0-38DE92F0041B}"/>
+    <hyperlink ref="D27" r:id="rId9" display="https://www.google.com/maps/place/Crystal+Neuro+Lab,+No.33,+Lourdhu+Nagar,+N+8th+St,+near+J.K+Hospital,+K.Pudhur,+Madurai,+Tamil+Nadu+625007/data=!4m6!3m5!1s0x3b00c58ac0a794a7:0x2dc1f5d83ece1517!7e2!8m2!3d9.9528388!4d78.1470448?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=958a757e-8a03-45e9-ac20-ed51f8d30a9a" xr:uid="{74CE3C55-67F5-4077-A7F4-5757DDDC7938}"/>
+    <hyperlink ref="D26" r:id="rId10" display="https://www.google.com/maps/place/MATHINA+AUDIOS+AND+LIGHTINGS,+68c,Pandiya+Vellalar+Street,+Crime+Branch,+S+Marret+St,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c5d8dcbb985b:0x39ba690ef99a2345!7e2!8m2!3d9.911921!4d78.1160185?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=63a77837-2903-4a0b-9159-c1738f491bc7" xr:uid="{E37B1205-66AA-4184-917B-885F3388CF04}"/>
+    <hyperlink ref="D22" r:id="rId11" display="https://www.google.com/maps/place/Madurai+North,+Tamil+Nadu+625501/data=!4m6!3m5!1s0x3b00b885271d8929:0xb311b80b8ef6df12!7e2!8m2!3d10.0546829!4d78.1670398?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=95acf91b-386e-4844-8e84-fa32564342e2" xr:uid="{A81B0F51-565A-415F-B1EA-588904C70AFE}"/>
+    <hyperlink ref="D21" r:id="rId12" display="https://www.google.com/maps/place/51%2F38,+Gnanaolivupuram,+Arappalayam,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf683bbff1b3:0x921860de96786b34!7e2!8m2!3d9.9332165!4d78.0974521?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=5eb22019-3785-40ed-9593-938e7527c280" xr:uid="{7982CCAC-675E-4E8F-8A8C-8EEEE0A550D0}"/>
+    <hyperlink ref="D20" r:id="rId13" display="https://www.google.com/maps/place/KANNAN+TEA+STALL,+1+Podhigai+Nagar+Karupasamy+Nagar,+Anaiyur,+Tamil+Nadu+625017/data=!4m6!3m5!1s0x3b00c7dbdf433cb9:0xe2dde715b2de218e!7e2!8m2!3d9.9658258!4d78.11619?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=063039ec-e55c-4e7d-8e08-e939dda09e64" xr:uid="{F9314166-6BE6-43D2-BFC3-C0F0E155FFB6}"/>
+    <hyperlink ref="D23" r:id="rId14" display="https://www.google.com/maps/place/W5WF%2B3W5+Braga+Rent+House+Valar+Nagar,+Srinivasa+Ave+Main+Rd,+Valar+Nagar,+Tamil+Nadu+625023/data=!4m6!3m5!1s0x3b00c5007e7ab9f1:0xecb013c2c29ab45e!7e2!8m2!3d9.945111299999999!4d78.1748532?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=d42dd2b5-9b21-4133-94e7-3d9af20fbe5d" xr:uid="{EE6E6BB0-762C-4501-997B-44DCA4DEDD5E}"/>
+    <hyperlink ref="D19" r:id="rId15" display="https://www.google.com/maps/place/Paandiaraajapuram+Rd,+Nataraja+Nagar,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf472863b6b7:0xa3e9bbd88e3fc76c!7e2!8m2!3d9.9400031!4d78.0906997?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=1b33b464-f6b0-4c3c-823a-a0636dbcba12" xr:uid="{D6EA90FD-48CB-4A97-B930-383393582707}"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://www.google.com/maps/place/X4FM%2B2Q8,+Indira+Nagar+Rd,+Muneeswarar+Nagar,+Iyer+Bungalow,+Sri+Krishna+Nagar,+Tamil+Nadu+625014/data=!4m6!3m5!1s0x3b00c66cb86984ab:0x90a2f869cf0268cd!7e2!8m2!3d9.9725734!4d78.1344621?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=e3bea10c-6972-44ba-a7a4-4871e4fa8fc0" xr:uid="{2AEAEB05-9A1A-401D-98FF-0BABEC85C3CD}"/>
+    <hyperlink ref="D17" r:id="rId17" display="https://www.google.com/maps/place/Tirupparankundram,+Tamil+Nadu+625008/data=!4m6!3m5!1s0x3b00d1e298affa35:0x16093824b4405315!7e2!8m2!3d9.8655941!4d78.0324235?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=3f0fe6aa-3348-4fbd-b169-2dee3d79dc97" xr:uid="{D6D2FB0B-AFA9-4704-A26B-ABA7C9E9B42E}"/>
+    <hyperlink ref="D15" r:id="rId18" display="https://www.google.com/maps/place/JK+CALIBRATION+INDIA+PVT+LTD,+13%2F42,+2nd+Main+Rd,+Alagar+Nagar,+K.Pudur,+Madurai,+Tamil+Nadu+625007/data=!4m6!3m5!1s0x3b00c5ce93a113c1:0x1b5eecf26184f3fb!7e2!8m2!3d9.9520125!4d78.1476545?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=f1979d81-69e0-4bff-b153-3149c2f5dadc" xr:uid="{8C5E4D7C-1396-408E-991A-32E8F2886FCF}"/>
+    <hyperlink ref="D14" r:id="rId19" display="https://www.google.com/maps/place/DOOR+NO.185,+SRI+CHITRA+TRADERS,+Sikkandar+Savadi,+Koodal+Nagar,+Madurai,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00c92ae97aeeb9:0xccb1abfc3eb7ddc7!7e2!8m2!3d9.9758535!4d78.0987919?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=7be6af40-2c7e-4e7d-8780-1bf0786feedc" xr:uid="{980D8F47-5864-4C16-89A8-82AB06A558DC}"/>
+    <hyperlink ref="D13" r:id="rId20" display="https://www.google.com/maps/place/X46C%2B238,+Kosakulam,+Madurai,+Tamil+Nadu+625017/data=!4m6!3m5!1s0x3b00c6064e66cd53:0x59cb3fbc499a49ae!7e2!8m2!3d9.960053499999999!4d78.120251?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=98ce2887-c1fb-48f9-bf01-1060073a5ec0" xr:uid="{EDEF2444-4306-4804-BCF7-C5252E64A760}"/>
+    <hyperlink ref="D12" r:id="rId21" display="https://www.google.com/maps/place/X4R2%2BV5Q,+Vishaal+Nagar+Phase+II,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00c8857141ed73:0xf4ccae4b9fd8d544!7e2!8m2!3d9.9915145!4d78.1004236?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=4a382840-7bb0-4836-aa83-362eca1cf2d9" xr:uid="{004B96E4-12E2-4DE9-BFDB-37924A5CCC43}"/>
+    <hyperlink ref="D11" r:id="rId22" display="https://www.google.com/maps/place/room,+150,+Theni+Main+Rd,+HMS+Colony,+Ponmeni,+Sambakudi,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf006842fc63:0xaafb2430e6832668!7e2!8m2!3d9.9317006!4d78.0848439?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=fa5c0c63-750f-47a5-b5ef-d5029ab47900" xr:uid="{9D310452-6535-4B58-839A-67A9297A5B81}"/>
+    <hyperlink ref="D10" r:id="rId23" display="https://www.google.com/maps/place/42,+EB+Colony,+T+V+S+Nagar,+Madurai,+Tamil+Nadu+625004/data=!4m6!3m5!1s0x3b00cf9880c6e487:0x832f2fde42c14f0!7e2!8m2!3d9.903741499999999!4d78.0883138?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=0e301928-2661-4f57-ab53-e761501a3647" xr:uid="{F3716DC7-85CE-47EB-A0BA-86A7BA7A54D5}"/>
+    <hyperlink ref="D9" r:id="rId24" display="https://www.google.com/maps/place/9.871581,78.067030/data=!4m6!3m5!1s0!7e2!8m2!3d9.871580999999999!4d78.06703?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACD67A0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=c9c2121c-40aa-4e91-8274-0c3a88f76366" xr:uid="{E426F7C0-C8AC-4DA1-8A41-39FE70A456B3}"/>
+    <hyperlink ref="D8" r:id="rId25" display="https://www.google.com/maps/place/Tirupparankundram,+Tamil+Nadu+625006/data=!4m6!3m5!1s0x3b00ce416d7821bd:0x4bcb5c84036e97ba!7e2!8m2!3d9.8926211!4d78.0458187?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=4dffd3c8-d67c-4cb0-b1e9-7a62d57bb7fd" xr:uid="{44F01FA2-4913-47F7-A002-710F24982E98}"/>
+    <hyperlink ref="D7" r:id="rId26" display="https://www.google.com/maps/place/RXGH%2BC5Q+MJ+Batteries+%26+inverters,+PRC+depo,+opposite+Tamilthai+nagar,+Tirumangalam,+Tamil+Nadu+625706/data=!4m6!3m5!1s0x3b00d3000377f0a9:0xb2751ae993669bfd!7e2!8m2!3d9.8260861!4d77.9779926?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=c6bddcc1-1f4c-46f8-a6eb-db95d3f31d37" xr:uid="{DA1C542D-B668-44B5-8E23-E84AC5ACDF3B}"/>
+    <hyperlink ref="D6" r:id="rId27" display="https://www.google.com/maps/place/9.979196,78.191548/data=!4m6!3m5!1s0!7e2!8m2!3d9.979196!4d78.191548?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACD67A0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=8c3f8a8e-a732-424a-a1bb-3208558078d5" xr:uid="{6BFE4399-5153-4EFC-9691-4C32FCD94018}"/>
+    <hyperlink ref="D5" r:id="rId28" display="https://www.google.com/maps/place/Madurai,+Tamil+Nadu+625012/data=!4m6!3m5!1s0x3b00cff1df4921f7:0x627e80cca6e434cb!7e2!8m2!3d9.883140899999999!4d78.0994932?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=169fc6ec-4d69-44fc-bb49-b42866759de6" xr:uid="{0BC6F117-B0D4-4E76-B1E7-4F6620564C1D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/location.xlsx
+++ b/data/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC596835-0B40-49D2-9A3B-5973EDA99262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB6DBB-176A-45D6-98CF-9CC793C09B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,15 +842,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="139.140625" customWidth="1"/>
   </cols>
   <sheetData>
